--- a/data/trans_dic/P33_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P33_R-Clase-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.2017777056721146</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.2721053737546885</v>
+        <v>0.2721053737546884</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.1798226683629235</v>
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1431842102821141</v>
+        <v>0.1431906323460858</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1988988116231174</v>
+        <v>0.195228547474244</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1765499101635097</v>
+        <v>0.1766310907639401</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1954522135223274</v>
+        <v>0.1923758258104183</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1420278972735761</v>
+        <v>0.144454411220129</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1583639699811689</v>
+        <v>0.1579345280808485</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1609094061293986</v>
+        <v>0.1608615742476924</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2395637601151542</v>
+        <v>0.2402581556893632</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1521632790437382</v>
+        <v>0.1543813236184647</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.193407234864423</v>
+        <v>0.1924304414991697</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1803135570149809</v>
+        <v>0.1799817542828037</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.223336776267363</v>
+        <v>0.2239180161850043</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2154332849820083</v>
+        <v>0.2183857670349356</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.286833349399522</v>
+        <v>0.2835155215013463</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2565113314974183</v>
+        <v>0.2601044751319277</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2675620519878843</v>
+        <v>0.268083563856794</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2358367383210523</v>
+        <v>0.231789596700419</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2517536409357744</v>
+        <v>0.2591410453772736</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2497143756697548</v>
+        <v>0.2495000183471166</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3082645271048196</v>
+        <v>0.311907764998797</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2116680287963925</v>
+        <v>0.2094894543253654</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.260290249350922</v>
+        <v>0.2536413452533278</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2397029226846708</v>
+        <v>0.2412420365761205</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2776142938284493</v>
+        <v>0.2758034739260053</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1021455116041529</v>
+        <v>0.09854028091159524</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2074720332688155</v>
+        <v>0.2102593143055634</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2181824742754576</v>
+        <v>0.2197898365595543</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1868939067685138</v>
+        <v>0.187337224147269</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1377412344124579</v>
+        <v>0.1409722707560112</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2319972680150792</v>
+        <v>0.2270261921762894</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.1625566450615214</v>
+        <v>0.1606644956839796</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.2416755855766367</v>
+        <v>0.2367572725012733</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.1336099472743971</v>
+        <v>0.1349275653376591</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2355500453375659</v>
+        <v>0.2277007759027992</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2002552942106413</v>
+        <v>0.2000185959725283</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.2242118356276017</v>
+        <v>0.2239276931980577</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1817113754117409</v>
+        <v>0.1742975507579473</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3020842980484565</v>
+        <v>0.2984176418706707</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3114926212271329</v>
+        <v>0.314122095959866</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2662054534288609</v>
+        <v>0.2643355872596302</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2210480848734217</v>
+        <v>0.2188424800907348</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3353509493386125</v>
+        <v>0.3351177680808166</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2462388885175144</v>
+        <v>0.2456989765990723</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3161818547619672</v>
+        <v>0.3160513684933163</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1868091143264148</v>
+        <v>0.1913400125890592</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3034625859958108</v>
+        <v>0.2976188542283708</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.2660335207997314</v>
+        <v>0.2637173897600574</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2739263800855485</v>
+        <v>0.278057404316835</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.2487364611346998</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.3239553083316289</v>
+        <v>0.3239553083316288</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.2597944420725191</v>
@@ -969,7 +969,7 @@
         <v>0.2463320356927096</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.3142129917815774</v>
+        <v>0.3142129917815773</v>
       </c>
     </row>
     <row r="11">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1575232030194793</v>
+        <v>0.1553413876980111</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2364246385479507</v>
+        <v>0.2350556252068422</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2138834959904149</v>
+        <v>0.2103693709491133</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2849596583032977</v>
+        <v>0.2774933160324309</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1960950957604919</v>
+        <v>0.1926368019130069</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2408135738443274</v>
+        <v>0.2354971421171881</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.172292452167585</v>
+        <v>0.1692643989698512</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.2366472638399772</v>
+        <v>0.2368613215727448</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1791243090695819</v>
+        <v>0.1755454461383246</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2482116217085271</v>
+        <v>0.2487703309781486</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2142361248528624</v>
+        <v>0.2131027746333329</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.2788297880532288</v>
+        <v>0.2789876684811258</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2280112203723954</v>
+        <v>0.2271714392857257</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.308016738104647</v>
+        <v>0.3042353015541627</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2915805140284816</v>
+        <v>0.2873070430329958</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3792737424528526</v>
+        <v>0.3721664881661592</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3376776279782837</v>
+        <v>0.3363113705173707</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3456243121249514</v>
+        <v>0.3536636166685763</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3220185860976162</v>
+        <v>0.3203009974633775</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3418149185034767</v>
+        <v>0.3521295173568966</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.243742041846007</v>
+        <v>0.236338568322097</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3078433721290771</v>
+        <v>0.309155068107784</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2790659031660246</v>
+        <v>0.2773182534225267</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3496292587104747</v>
+        <v>0.34951510715614</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.2636709158757169</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.2931925388857427</v>
+        <v>0.2931925388857426</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1990314144784104</v>
+        <v>0.1972049799173769</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2454133829198759</v>
+        <v>0.2455160100379527</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.222483977731613</v>
+        <v>0.2206831669025594</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.2305091984769074</v>
+        <v>0.2305170826296744</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1839644598325478</v>
+        <v>0.1834383346234189</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2578199795497647</v>
+        <v>0.2534906348580443</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2593876243780067</v>
+        <v>0.2562889056144701</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.315232734256045</v>
+        <v>0.3109417170084073</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.2003027914674963</v>
+        <v>0.2016964210308968</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2601777528076971</v>
+        <v>0.2592282876669141</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2447693676055931</v>
+        <v>0.2437508824659014</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.2746633481325588</v>
+        <v>0.2723527649980557</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2448757367113886</v>
+        <v>0.2459904166787869</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3014562089001468</v>
+        <v>0.2993349841194204</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2718376565310985</v>
+        <v>0.2686363717978588</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2842535440954839</v>
+        <v>0.2834512653716375</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2473673614600496</v>
+        <v>0.2461201591793429</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.323906999410117</v>
+        <v>0.3235294499272914</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3224329442622713</v>
+        <v>0.321168572318729</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.3700979769288765</v>
+        <v>0.3675368818296305</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2359340034568164</v>
+        <v>0.2387692355219575</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.298781847285428</v>
+        <v>0.3021509706699911</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.2853138343246345</v>
+        <v>0.2847960013855386</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.3132372784972945</v>
+        <v>0.3121547885628052</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.2239026275354085</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.2549006444249662</v>
+        <v>0.2549006444249661</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.2480897525414281</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1688727736339393</v>
+        <v>0.1682310542820933</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2426505599477822</v>
+        <v>0.2463342314187979</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1927334159305787</v>
+        <v>0.1872512844222921</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.2187869470326194</v>
+        <v>0.2196645816489067</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2136108469988055</v>
+        <v>0.211203240243567</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.3434957404477658</v>
+        <v>0.343857344461371</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.276531415534259</v>
+        <v>0.2755098498008952</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3134964413297672</v>
+        <v>0.3131177522199853</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.2033570419828662</v>
+        <v>0.207775993575413</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.3141608570494843</v>
+        <v>0.3124382912158055</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.24644790608652</v>
+        <v>0.246212492605082</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2845752947329151</v>
+        <v>0.285339833671188</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2547519455649738</v>
+        <v>0.2539424521669111</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3303614708212159</v>
+        <v>0.3211107839714525</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2615007000421189</v>
+        <v>0.2553751804838281</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.297140216791287</v>
+        <v>0.2946757119350709</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2907935642047383</v>
+        <v>0.2861448240661172</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.416468361096931</v>
+        <v>0.4188805033844913</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.3477327142286171</v>
+        <v>0.3449024836031409</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3695211661517754</v>
+        <v>0.3721561335481422</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.2605446372973445</v>
+        <v>0.2639583052972008</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3697378082811442</v>
+        <v>0.3667214680732981</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2969305187278454</v>
+        <v>0.2952861857258252</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3301060603111139</v>
+        <v>0.330578130226549</v>
       </c>
     </row>
     <row r="19">
@@ -1377,7 +1377,7 @@
         <v>0.2895847374729537</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.2385791424607129</v>
+        <v>0.2385791424607128</v>
       </c>
     </row>
     <row r="20">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.04987680091009065</v>
+        <v>0.04716509592461435</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.1304285302459849</v>
+        <v>0.129055232196657</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.1162978970606326</v>
+        <v>0.1155756746947858</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.05132288026806186</v>
+        <v>0.04830339274335705</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.255869981323659</v>
+        <v>0.2568545002015771</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.3394150619011328</v>
+        <v>0.3388381911116178</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.290505285807095</v>
+        <v>0.2962062688260483</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2500597807231257</v>
+        <v>0.2490420612108348</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2218867124755196</v>
+        <v>0.223039640928339</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.3068997345588728</v>
+        <v>0.3030647632673411</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2658558926620446</v>
+        <v>0.2677712272837817</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2141094382452892</v>
+        <v>0.2119392230717832</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1120776211220756</v>
+        <v>0.1124844887868977</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2263818416263311</v>
+        <v>0.2225678761833154</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2035050530243025</v>
+        <v>0.2019986634071308</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1848563590435058</v>
+        <v>0.1697400640802656</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3076652605957328</v>
+        <v>0.3082163196404965</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3993550164115156</v>
+        <v>0.3984664815333307</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.354348131813353</v>
+        <v>0.356166865769286</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3055690267045069</v>
+        <v>0.3076659894929238</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2646624177607276</v>
+        <v>0.2647971033593363</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.35890106301526</v>
+        <v>0.3552304272601614</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.3143449781374045</v>
+        <v>0.317051102351384</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2652982432147984</v>
+        <v>0.2685850933933868</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1724593089704836</v>
+        <v>0.171187766731379</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2448708805234616</v>
+        <v>0.2439597496794053</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2173293822400335</v>
+        <v>0.2171081949440583</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.2300607100109702</v>
+        <v>0.2294121492395011</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.2242887341060728</v>
+        <v>0.2266436501291632</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.3078349713719423</v>
+        <v>0.3097377047005616</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2676797093482959</v>
+        <v>0.2704646212935147</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.2933416106542997</v>
+        <v>0.2937127126523753</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2030820187575826</v>
+        <v>0.2050196763292257</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2811854293292109</v>
+        <v>0.2815024177928931</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2483956772275568</v>
+        <v>0.2474829565714908</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2662566440414044</v>
+        <v>0.266934251558715</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.2001479718991469</v>
+        <v>0.1992224514805492</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2755243644508795</v>
+        <v>0.2750077190720532</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2477462656323093</v>
+        <v>0.2457103626280874</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2614896197852198</v>
+        <v>0.2611882082671391</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.2542207866215721</v>
+        <v>0.255426734832798</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3400568206104765</v>
+        <v>0.3411589762099863</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.3008350224421651</v>
+        <v>0.3001897087674091</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.3207796485241103</v>
+        <v>0.320957409211133</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.2241882556948417</v>
+        <v>0.2251756787270401</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3044645789780607</v>
+        <v>0.3056648204217575</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2699211691466178</v>
+        <v>0.2701426562297122</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2881876084642574</v>
+        <v>0.2872615181418443</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>66833</v>
+        <v>66836</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>86961</v>
+        <v>85356</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>75756</v>
+        <v>75791</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>105560</v>
+        <v>103898</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>43557</v>
+        <v>44301</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>49798</v>
+        <v>49663</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>55844</v>
+        <v>55828</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>115563</v>
+        <v>115898</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>117690</v>
+        <v>119405</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>145377</v>
+        <v>144643</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>139950</v>
+        <v>139692</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>228354</v>
+        <v>228949</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>100556</v>
+        <v>101934</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>125407</v>
+        <v>123956</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>110067</v>
+        <v>111609</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>144505</v>
+        <v>144786</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>72326</v>
+        <v>71085</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>79165</v>
+        <v>81488</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>86665</v>
+        <v>86590</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>148703</v>
+        <v>150461</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>163713</v>
+        <v>162028</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>195651</v>
+        <v>190653</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>186045</v>
+        <v>187239</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>283851</v>
+        <v>282000</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>37183</v>
+        <v>35871</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>86695</v>
+        <v>87859</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>82105</v>
+        <v>82710</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>89085</v>
+        <v>89296</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>51092</v>
+        <v>52291</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>78418</v>
+        <v>76737</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>60515</v>
+        <v>59811</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>100310</v>
+        <v>98268</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>98197</v>
+        <v>99165</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>178046</v>
+        <v>172113</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>149909</v>
+        <v>149732</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>199935</v>
+        <v>199681</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>66147</v>
+        <v>63448</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>126230</v>
+        <v>124697</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>117219</v>
+        <v>118209</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>126890</v>
+        <v>125998</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>81993</v>
+        <v>81175</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>113352</v>
+        <v>113273</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>91668</v>
+        <v>91467</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>131234</v>
+        <v>131180</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>137296</v>
+        <v>140626</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>229379</v>
+        <v>224962</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>199150</v>
+        <v>197416</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>244266</v>
+        <v>247950</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>84561</v>
+        <v>83390</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>148324</v>
+        <v>147465</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>111289</v>
+        <v>109461</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>131667</v>
+        <v>128217</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>32270</v>
+        <v>31701</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>61836</v>
+        <v>60471</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>27911</v>
+        <v>27420</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>43205</v>
+        <v>43244</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>125633</v>
+        <v>123123</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>219455</v>
+        <v>219949</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>146178</v>
+        <v>145405</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>179741</v>
+        <v>179843</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>122400</v>
+        <v>121949</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>193238</v>
+        <v>190866</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>151717</v>
+        <v>149494</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>175245</v>
+        <v>171961</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>55569</v>
+        <v>55344</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>88749</v>
+        <v>90813</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>52166</v>
+        <v>51887</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>62406</v>
+        <v>64289</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>170955</v>
+        <v>165762</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>272178</v>
+        <v>273337</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>190413</v>
+        <v>189221</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>225380</v>
+        <v>225307</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>242119</v>
+        <v>239897</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>282717</v>
+        <v>282835</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>255075</v>
+        <v>253011</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>248720</v>
+        <v>248728</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>130095</v>
+        <v>129723</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>197659</v>
+        <v>194340</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>213512</v>
+        <v>210962</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>263743</v>
+        <v>260153</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>385314</v>
+        <v>387995</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>499193</v>
+        <v>497371</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>482105</v>
+        <v>480099</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>526162</v>
+        <v>521736</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>297888</v>
+        <v>299244</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>347279</v>
+        <v>344835</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>311659</v>
+        <v>307989</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>306710</v>
+        <v>305844</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>174932</v>
+        <v>174050</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>248326</v>
+        <v>248036</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>265407</v>
+        <v>264367</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>309647</v>
+        <v>307504</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>453856</v>
+        <v>459310</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>573261</v>
+        <v>579725</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>561962</v>
+        <v>560942</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>600057</v>
+        <v>597983</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>58345</v>
+        <v>58123</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>123579</v>
+        <v>125455</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>119415</v>
+        <v>116019</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>119824</v>
+        <v>120305</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>121492</v>
+        <v>120122</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>261242</v>
+        <v>261517</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>203538</v>
+        <v>202786</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>250160</v>
+        <v>249858</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>185919</v>
+        <v>189959</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>398930</v>
+        <v>396743</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>334091</v>
+        <v>333772</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>382937</v>
+        <v>383966</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>88016</v>
+        <v>87737</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>168249</v>
+        <v>163538</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>162023</v>
+        <v>158227</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>162736</v>
+        <v>161386</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>165389</v>
+        <v>162745</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>316741</v>
+        <v>318575</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>255945</v>
+        <v>253862</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>294866</v>
+        <v>296969</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>238203</v>
+        <v>241324</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>469503</v>
+        <v>465673</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>402527</v>
+        <v>400298</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>444205</v>
+        <v>444840</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>14647</v>
+        <v>13851</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>34685</v>
+        <v>34319</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>33394</v>
+        <v>33187</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>11990</v>
+        <v>11285</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>316759</v>
+        <v>317978</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>374827</v>
+        <v>374190</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>312744</v>
+        <v>318882</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>203407</v>
+        <v>202579</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>339850</v>
+        <v>341616</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>420532</v>
+        <v>415278</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>362547</v>
+        <v>365159</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>224184</v>
+        <v>221911</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>32914</v>
+        <v>33033</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>60201</v>
+        <v>59187</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>58435</v>
+        <v>58003</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>43186</v>
+        <v>39654</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>380880</v>
+        <v>381563</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>441021</v>
+        <v>440039</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>381475</v>
+        <v>383433</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>248560</v>
+        <v>250266</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>405367</v>
+        <v>405574</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>491788</v>
+        <v>486758</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>428672</v>
+        <v>432362</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>277781</v>
+        <v>281223</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>555880</v>
+        <v>551781</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>834925</v>
+        <v>831819</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>734346</v>
+        <v>733599</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>768193</v>
+        <v>766027</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>752728</v>
+        <v>760631</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>1089974</v>
+        <v>1096711</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>941445</v>
+        <v>951239</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>1034934</v>
+        <v>1036243</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1336141</v>
+        <v>1348889</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1954359</v>
+        <v>1956563</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1712940</v>
+        <v>1706645</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1828430</v>
+        <v>1833083</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>645127</v>
+        <v>642144</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>939443</v>
+        <v>937681</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>837124</v>
+        <v>830245</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>873137</v>
+        <v>872130</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>853181</v>
+        <v>857229</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>1204064</v>
+        <v>1207967</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>1058054</v>
+        <v>1055784</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>1131738</v>
+        <v>1132365</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1475006</v>
+        <v>1481502</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>2116159</v>
+        <v>2124502</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1861380</v>
+        <v>1862907</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1979034</v>
+        <v>1972674</v>
       </c>
     </row>
     <row r="32">
